--- a/Project_Management/Sprint3/Scrum Board.xlsx
+++ b/Project_Management/Sprint3/Scrum Board.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blaze\Desktop\ES2324\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blaze\Desktop\ES2324\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0134307-EA57-4981-B101-11C4E0ADE675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6FDCCA-5C43-486A-8166-6A3A79D9A97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Backlog:</t>
   </si>
@@ -75,6 +75,27 @@
   </si>
   <si>
     <t>Organizar o repositório no Github</t>
+  </si>
+  <si>
+    <t>Jogar FreeCol (José Pereira)</t>
+  </si>
+  <si>
+    <t>Compreender o código do projeto (José Pereira)</t>
+  </si>
+  <si>
+    <t>Organizar o repositório no Github (José Pereira)</t>
+  </si>
+  <si>
+    <t>Fazer os Use Case Diagrams (Todos têm de fazer)</t>
+  </si>
+  <si>
+    <t>Obter as Code Base Metrics (Todos têm de fazer)</t>
+  </si>
+  <si>
+    <t>Identificar os GOF Patterns and Smells (Todos têm de fazer)</t>
+  </si>
+  <si>
+    <t>Reunir o grupo para organizar a entrega da 2ª fase do projeto (José Pereira)</t>
   </si>
 </sst>
 </file>
@@ -476,16 +497,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="71.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" customWidth="1"/>
-    <col min="5" max="5" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="70.7109375" customWidth="1"/>
+    <col min="5" max="5" width="54" customWidth="1"/>
     <col min="6" max="6" width="37.28515625" customWidth="1"/>
     <col min="7" max="7" width="51.85546875" customWidth="1"/>
   </cols>
@@ -514,32 +535,46 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
       </c>
       <c r="G8" s="2"/>
     </row>

--- a/Project_Management/Sprint3/Scrum Board.xlsx
+++ b/Project_Management/Sprint3/Scrum Board.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blaze\Desktop\ES2324\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA6FDCCA-5C43-486A-8166-6A3A79D9A97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C031FE10-C609-4331-9D00-CE823050D8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,13 +89,13 @@
     <t>Fazer os Use Case Diagrams (Todos têm de fazer)</t>
   </si>
   <si>
-    <t>Obter as Code Base Metrics (Todos têm de fazer)</t>
-  </si>
-  <si>
-    <t>Identificar os GOF Patterns and Smells (Todos têm de fazer)</t>
-  </si>
-  <si>
     <t>Reunir o grupo para organizar a entrega da 2ª fase do projeto (José Pereira)</t>
+  </si>
+  <si>
+    <t>Identificar os GOF Patterns and Smells (José Pereira)</t>
+  </si>
+  <si>
+    <t>Obter as Code Base Metrics (José Pereira)</t>
   </si>
 </sst>
 </file>
@@ -175,15 +175,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Nota" xfId="1" builtinId="10"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -498,7 +497,7 @@
   <dimension ref="B3:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,24 +556,24 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
-        <v>18</v>
+      <c r="E7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
       </c>
       <c r="G8" s="2"/>
     </row>

--- a/Project_Management/Sprint3/Scrum Board.xlsx
+++ b/Project_Management/Sprint3/Scrum Board.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blaze\Desktop\ES2324\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C031FE10-C609-4331-9D00-CE823050D8E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE48121-AAE1-4817-8FB2-9EF9F8BE10A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13320" yWindow="3675" windowWidth="12495" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Backlog:</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Obter as Code Base Metrics</t>
   </si>
   <si>
-    <t>Identificar os GOF Patterns and Smells</t>
-  </si>
-  <si>
     <t>Jogar FreeCol</t>
   </si>
   <si>
@@ -92,10 +89,19 @@
     <t>Reunir o grupo para organizar a entrega da 2ª fase do projeto (José Pereira)</t>
   </si>
   <si>
-    <t>Identificar os GOF Patterns and Smells (José Pereira)</t>
-  </si>
-  <si>
     <t>Obter as Code Base Metrics (José Pereira)</t>
+  </si>
+  <si>
+    <t>Identificar os Code Smells (José Pereira)</t>
+  </si>
+  <si>
+    <t>Identificar 3 GOF Design Patterns</t>
+  </si>
+  <si>
+    <t>Identificar 3 Code Smells</t>
+  </si>
+  <si>
+    <t>Identificar 3 Design Patterns (Todos têm de fazer)</t>
   </si>
 </sst>
 </file>
@@ -494,18 +500,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:G10"/>
+  <dimension ref="B3:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="71.7109375" customWidth="1"/>
     <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="70.7109375" customWidth="1"/>
-    <col min="5" max="5" width="54" customWidth="1"/>
+    <col min="4" max="4" width="57" customWidth="1"/>
+    <col min="5" max="5" width="67.42578125" customWidth="1"/>
     <col min="6" max="6" width="37.28515625" customWidth="1"/>
     <col min="7" max="7" width="51.85546875" customWidth="1"/>
   </cols>
@@ -532,13 +538,16 @@
     </row>
     <row r="4" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
+      <c r="G4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
@@ -546,10 +555,13 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
@@ -557,34 +569,36 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Project_Management/Sprint3/Scrum Board.xlsx
+++ b/Project_Management/Sprint3/Scrum Board.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blaze\Desktop\ES2324\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE48121-AAE1-4817-8FB2-9EF9F8BE10A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBF13F7-2B96-4967-A052-08CF9DE51D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13320" yWindow="3675" windowWidth="12495" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -502,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,9 +554,6 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
@@ -568,16 +565,19 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6" t="s">
         <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">

--- a/Project_Management/Sprint3/Scrum Board.xlsx
+++ b/Project_Management/Sprint3/Scrum Board.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blaze\Desktop\ES2324\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBF13F7-2B96-4967-A052-08CF9DE51D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCFC4DF-BC83-4AF4-9C3B-16C751F5DFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -108,7 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,14 +127,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,10 +173,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,9 +545,6 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
@@ -565,9 +553,6 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
@@ -576,19 +561,24 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" t="s">
-        <v>21</v>
+      <c r="G7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">

--- a/Project_Management/Sprint3/Scrum Board.xlsx
+++ b/Project_Management/Sprint3/Scrum Board.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blaze\Desktop\ES2324\Sprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCFC4DF-BC83-4AF4-9C3B-16C751F5DFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DDEAC9-4D95-44D0-B1E1-B6A93B8EB1EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,12 +531,6 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
       <c r="G4" t="s">
         <v>17</v>
       </c>
@@ -585,10 +579,16 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
